--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Create and Delete CitizenShip from Excel</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Functionality</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +91,325 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="6">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -21,6 +21,15 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Functionality</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>As an Admin User I should be able to Add-Edit-Delete Fields under Parameters Setup</t>
   </si>
 </sst>
 </file>
@@ -65,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +91,138 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="6">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -74,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,6 +179,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t>Admin User should be able to Add Subject Categories</t>
+  </si>
+  <si>
+    <t>Human Resources  Position Catagories Add Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  PositionCatagories Delete Functionality</t>
   </si>
 </sst>
 </file>
@@ -74,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -179,6 +185,160 @@
         <v>2</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="10">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>Human Resources  PositionCatagories Delete Functionality</t>
+  </si>
+  <si>
+    <t>Scholls  Position Catagories Add Functionality</t>
+  </si>
+  <si>
+    <t>Schools  Position Catagories Edit Functionality</t>
   </si>
 </sst>
 </file>
@@ -80,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -339,6 +345,116 @@
         <v>2</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="15">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -42,6 +42,21 @@
   </si>
   <si>
     <t>Schools  Position Catagories Edit Functionality</t>
+  </si>
+  <si>
+    <t>Bank Accounts Add Functionality</t>
+  </si>
+  <si>
+    <t>Bank Accounts Negative Add Functionality</t>
+  </si>
+  <si>
+    <t>Bank Accounts Edit Functionality</t>
+  </si>
+  <si>
+    <t>Bank Accounts Delete Functionality</t>
+  </si>
+  <si>
+    <t>Bank Accounts  Negative Delete Functionality</t>
   </si>
 </sst>
 </file>
@@ -86,7 +101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -455,6 +470,380 @@
         <v>2</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>13</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>13</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>13</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>13</v>
+      </c>
+      <c r="B57" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>13</v>
+      </c>
+      <c r="B58" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>13</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="16">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -57,6 +57,9 @@
   </si>
   <si>
     <t>Bank Accounts  Negative Delete Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  PositionCatagories Edit Functionality</t>
   </si>
 </sst>
 </file>
@@ -101,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -844,6 +847,39 @@
         <v>2</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>6</v>
+      </c>
+      <c r="B68" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="16">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -104,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -880,6 +880,105 @@
         <v>2</v>
       </c>
     </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>8</v>
+      </c>
+      <c r="B71" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>9</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>9</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>9</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>9</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="26">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -60,6 +60,36 @@
   </si>
   <si>
     <t>Human Resources  PositionCatagories Edit Functionality</t>
+  </si>
+  <si>
+    <t>School Locations Functionality</t>
+  </si>
+  <si>
+    <t>School Locations Negative Functionality</t>
+  </si>
+  <si>
+    <t>School Locations Edit Functionality</t>
+  </si>
+  <si>
+    <t>School Locations Negative Edit Functionality</t>
+  </si>
+  <si>
+    <t>School Locations Delete Functionality</t>
+  </si>
+  <si>
+    <t>Discounts Functionality</t>
+  </si>
+  <si>
+    <t>Discounts Negative  Functionality</t>
+  </si>
+  <si>
+    <t>Discounts Edit  Functionality</t>
+  </si>
+  <si>
+    <t>Discounts Edit Negative  Functionality</t>
+  </si>
+  <si>
+    <t>Discounts Delete  Functionality</t>
   </si>
 </sst>
 </file>
@@ -104,7 +134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -979,6 +1009,292 @@
         <v>2</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>17</v>
+      </c>
+      <c r="B92" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>18</v>
+      </c>
+      <c r="B93" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>19</v>
+      </c>
+      <c r="B96" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>20</v>
+      </c>
+      <c r="B97" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>21</v>
+      </c>
+      <c r="B98" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>4</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" t="s">
+        <v>4</v>
+      </c>
+      <c r="C105" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="24">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -62,34 +62,28 @@
     <t>Human Resources  PositionCatagories Edit Functionality</t>
   </si>
   <si>
-    <t>School Locations Functionality</t>
-  </si>
-  <si>
-    <t>School Locations Negative Functionality</t>
-  </si>
-  <si>
-    <t>School Locations Edit Functionality</t>
-  </si>
-  <si>
-    <t>School Locations Negative Edit Functionality</t>
-  </si>
-  <si>
-    <t>School Locations Delete Functionality</t>
-  </si>
-  <si>
-    <t>Discounts Functionality</t>
-  </si>
-  <si>
-    <t>Discounts Negative  Functionality</t>
-  </si>
-  <si>
-    <t>Discounts Edit  Functionality</t>
-  </si>
-  <si>
-    <t>Discounts Edit Negative  Functionality</t>
-  </si>
-  <si>
-    <t>Discounts Delete  Functionality</t>
+    <t>Schools  Position Catagories Delete Functionality</t>
+  </si>
+  <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Add Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations  Negative Add Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations  Edit Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Delete Functionality</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Negative Delete Functionality</t>
+  </si>
+  <si>
+    <t>Scholls  Position Catagories Negative Add Functionality</t>
   </si>
 </sst>
 </file>
@@ -134,7 +128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1033,29 +1027,29 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s">
         <v>1</v>
       </c>
       <c r="C82" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s">
         <v>4</v>
@@ -1066,10 +1060,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -1077,10 +1071,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -1088,10 +1082,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -1099,10 +1093,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -1110,7 +1104,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B89" t="s">
         <v>4</v>
@@ -1121,10 +1115,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B90" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -1132,10 +1126,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -1143,10 +1137,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -1154,10 +1148,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -1165,10 +1159,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B94" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -1176,10 +1170,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B95" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -1187,10 +1181,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -1198,10 +1192,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -1209,10 +1203,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -1220,10 +1214,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -1231,10 +1225,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -1242,56 +1236,12 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B101" t="s">
         <v>4</v>
       </c>
       <c r="C101" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>23</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1</v>
-      </c>
-      <c r="C102" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>23</v>
-      </c>
-      <c r="B103" t="s">
-        <v>4</v>
-      </c>
-      <c r="C103" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>24</v>
-      </c>
-      <c r="B104" t="s">
-        <v>4</v>
-      </c>
-      <c r="C104" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>25</v>
-      </c>
-      <c r="B105" t="s">
-        <v>4</v>
-      </c>
-      <c r="C105" t="s">
         <v>2</v>
       </c>
     </row>
